--- a/Protokoll.xlsx
+++ b/Protokoll.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\2016_17\BSD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Documents\GitHub\OrderM8\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
   </bookViews>
   <sheets>
     <sheet name="Protokoll" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>OrderM8</t>
   </si>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -211,6 +211,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -246,6 +263,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -401,20 +435,21 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>42641</v>
       </c>
@@ -466,52 +501,70 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>42648</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>42655</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>42662</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>42669</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>42676</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>42683</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>42690</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>42697</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>42704</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>42711</v>
       </c>

--- a/Protokoll.xlsx
+++ b/Protokoll.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Documents\GitHub\OrderM8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\2016_17\BSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Protokoll" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>OrderM8</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t xml:space="preserve">Datenmodell </t>
+  </si>
+  <si>
+    <t>Datenmodell verbessern, Sprint Planning Meeting</t>
+  </si>
+  <si>
+    <t>SprintPlanningMeeting</t>
   </si>
 </sst>
 </file>
@@ -120,7 +126,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -136,7 +142,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -432,24 +438,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.75" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,20 +468,8 @@
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>42641</v>
       </c>
@@ -494,14 +485,8 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>42648</v>
       </c>
@@ -517,56 +502,100 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>42655</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>42662</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>42669</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>42676</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>42683</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>42690</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>42697</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>42704</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>42711</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Protokoll.xlsx
+++ b/Protokoll.xlsx
@@ -12,7 +12,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
-    <sheet name="Protokoll" sheetId="1" r:id="rId1"/>
+    <sheet name="Allgemein" sheetId="2" r:id="rId1"/>
+    <sheet name="01_Dreier" sheetId="5" r:id="rId2"/>
+    <sheet name="03_Grießer" sheetId="3" r:id="rId3"/>
+    <sheet name="07_Lackner" sheetId="4" r:id="rId4"/>
+    <sheet name="09_Leiter" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,23 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="18">
   <si>
     <t>OrderM8</t>
   </si>
   <si>
-    <t>Leiter Thomas</t>
-  </si>
-  <si>
-    <t>Dreier Lukas</t>
-  </si>
-  <si>
-    <t>Grießer Andreas</t>
-  </si>
-  <si>
-    <t>Lackner Thomas</t>
-  </si>
-  <si>
     <t>Datenmodell erarbeiten</t>
   </si>
   <si>
@@ -66,6 +58,30 @@
   </si>
   <si>
     <t>SprintPlanningMeeting</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Unterschied zwischen konzeptuellen und logischen Modell</t>
+  </si>
+  <si>
+    <t>Belehrung</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Website - Menulayout</t>
+  </si>
+  <si>
+    <t>Website - Grundstruktur</t>
+  </si>
+  <si>
+    <t>Verlinkung der einzelnen Bereiche</t>
+  </si>
+  <si>
+    <t>Controller und Module der Unterseiten einbinden</t>
   </si>
 </sst>
 </file>
@@ -105,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -113,17 +129,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,168 +498,489 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="38.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>42641</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>42648</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>42655</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>42641</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="D3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>42648</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>42655</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>42662</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>42669</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>42676</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>42683</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>42690</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>42697</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>42704</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>42711</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="5">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="5">
-        <v>1</v>
-      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>42641</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="D3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>42648</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>42655</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>42659</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>42659</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>135</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>42641</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="D3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>42648</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>42655</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>42641</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="D3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>42648</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>42655</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Protokoll.xlsx
+++ b/Protokoll.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="18">
   <si>
     <t>OrderM8</t>
   </si>
@@ -500,7 +500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -677,10 +677,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,6 +790,20 @@
       </c>
       <c r="F7" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>42660</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
